--- a/InputData/indst/PPRiFUfICaWHR/Pot Perc Red in Fuel Use fr Inc Cogen and WHR.xlsx
+++ b/InputData/indst/PPRiFUfICaWHR/Pot Perc Red in Fuel Use fr Inc Cogen and WHR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\indst\PPRiFUfICaWHR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iamho\Dropbox\Energy Innovation\InputData_RevisionRequest\indst\PPRiFUfICaWHR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649E8F92-5031-4E5C-A383-AB9DE5FAA438}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0021B0-D01C-4ADB-8592-F28D2D1699BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4470" yWindow="1620" windowWidth="23580" windowHeight="15330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="31220" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -33,32 +33,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
   <si>
     <t>Source:</t>
   </si>
   <si>
-    <t>Rocky Mountain Institute</t>
-  </si>
-  <si>
-    <t>Reinventing Fire</t>
-  </si>
-  <si>
-    <t>http://www.rmi.org/RFGraph-US_industry_energy_saving_potential</t>
-  </si>
-  <si>
-    <t>Book page 127, Figure 4-2 (or see link above)</t>
-  </si>
-  <si>
     <t>Item</t>
   </si>
   <si>
-    <t>2050 business-as-usual</t>
-  </si>
-  <si>
-    <t>Energy Use (quadrillion BTU/yr)</t>
-  </si>
-  <si>
     <t>Percentage Savings in 2050</t>
   </si>
   <si>
@@ -71,12 +53,6 @@
     <t>Model End Year</t>
   </si>
   <si>
-    <t>Notes:</t>
-  </si>
-  <si>
-    <t>stationary equipment compared to other industries.</t>
-  </si>
-  <si>
     <t>PPRiFUfICaWHR Potential Perc Reduction in Fuel Use from Increased Cogen and Waste Heat Recovery</t>
   </si>
   <si>
@@ -161,29 +137,173 @@
     <t>Pot Perc Red in Fuel Use</t>
   </si>
   <si>
-    <t>We do not apply this potential to non-manufacturing indutries due to their lack of large, heat-generating,</t>
+    <t>1TOE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTU</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy Use</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2040 BAU</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>million TOE/yr</t>
+  </si>
+  <si>
+    <t>million TOE/yr</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOE/yr</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTU/yr</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>quadrillion BTU/yr</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>notes</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국 데이터</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2050 BAU</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>미국 데이터</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>30~40 연평균 증가율인 0.3을 이용하여 추정한 2050 BAU 값</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>연평균증가율(%)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAU</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>year</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>글로벌 열병합발전(CHP) 시장의 지역별 시장 규모 및 전망(2023)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>북아메리카</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>남아메리카</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>(million $)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국/미국 시장규모 전망</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combined Heat &amp; Power Market</t>
+  </si>
+  <si>
+    <t>https://www.innopolis.or.kr/board/view?pageNum=1&amp;rowCnt=10&amp;no1=637&amp;linkId=44496&amp;menuId=MENU00999&amp;schType=0&amp;schText=&amp;boardStyle=&amp;categoryId=&amp;continent=&amp;country=</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Page 8-9</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAU data</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.motie.go.kr/common/download.do?fid=bbs&amp;bbs_cd_n=81&amp;bbs_seq_n=161753&amp;file_seq_n=1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Page 31</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notes</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>South Korean Ministry of Trade, Industry and Energy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea Innovation Foundation</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3rd Energy White Paper</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea Innovation Foundation used the global market share projection of combined heat and power from Marketandmarkets to project the CHP market projection in South Korea.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHP Global Market Trend Forecast</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>We downscaled the CHP waste heat data from EI US datasets based on the CHP Global Market Trend Forecast.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -191,7 +311,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -199,7 +319,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -207,12 +327,36 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,6 +375,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -246,32 +396,51 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="백분율" xfId="1" builtinId="5"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -287,7 +456,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -607,137 +776,489 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="41.140625" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="2" max="2" width="41.08203125" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
+      <c r="B3" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B5" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B10" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B12" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B14" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="12">
+        <v>39656668.310000002</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B14" r:id="rId2" xr:uid="{1C8A3DAF-C3B3-4DCE-8C9C-60415B769011}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="1" max="1" width="45.58203125" customWidth="1"/>
+    <col min="2" max="2" width="29.58203125" customWidth="1"/>
+    <col min="3" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="19">
+        <v>30.5</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="20">
+        <f>O22</f>
+        <v>211.13065187392769</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="20">
+        <f>Y22</f>
+        <v>217.55076701176009</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="20">
+        <f>B4*10^6</f>
+        <v>217550767.01176009</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="20">
+        <f>B5*About!B25</f>
+        <v>8627338607971460</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B7" s="21">
+        <f>B6/10^15</f>
+        <v>8.6273386079714598</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="22">
+        <v>-2.4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B10" s="21">
+        <f>B9*B20</f>
+        <v>-0.46287509676244254</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="4">
+        <f>-B10/B7</f>
+        <v>5.3652130488393804E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>30.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>-2.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5">
-        <f>-B3/B2</f>
-        <v>7.8688524590163927E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="8">
+      <c r="B13" s="7">
         <v>2050</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="7">
-        <f>B5*(B6-2010)/(2050-2010)</f>
-        <v>7.8688524590163927E-2</v>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="6">
+        <f>B12*(B13-2010)/(2050-2010)</f>
+        <v>5.3652130488393804E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17">
+        <v>3543.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18">
+        <v>848.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19">
+        <f>847100000/10^6</f>
+        <v>847.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20">
+        <f>B19/SUM(B17:B18)</f>
+        <v>0.19286462365101772</v>
+      </c>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="D21" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="15">
+        <v>2030</v>
+      </c>
+      <c r="F21" s="15">
+        <v>2031</v>
+      </c>
+      <c r="G21" s="15">
+        <v>2032</v>
+      </c>
+      <c r="H21" s="15">
+        <v>2033</v>
+      </c>
+      <c r="I21" s="15">
+        <v>2034</v>
+      </c>
+      <c r="J21" s="15">
+        <v>2035</v>
+      </c>
+      <c r="K21" s="15">
+        <v>2036</v>
+      </c>
+      <c r="L21" s="15">
+        <v>2037</v>
+      </c>
+      <c r="M21" s="15">
+        <v>2038</v>
+      </c>
+      <c r="N21" s="15">
+        <v>2039</v>
+      </c>
+      <c r="O21" s="15">
+        <v>2040</v>
+      </c>
+      <c r="P21" s="15">
+        <v>2041</v>
+      </c>
+      <c r="Q21" s="15">
+        <v>2042</v>
+      </c>
+      <c r="R21" s="15">
+        <v>2043</v>
+      </c>
+      <c r="S21" s="15">
+        <v>2044</v>
+      </c>
+      <c r="T21" s="15">
+        <v>2045</v>
+      </c>
+      <c r="U21" s="15">
+        <v>2046</v>
+      </c>
+      <c r="V21" s="15">
+        <v>2047</v>
+      </c>
+      <c r="W21" s="15">
+        <v>2048</v>
+      </c>
+      <c r="X21" s="15">
+        <v>2049</v>
+      </c>
+      <c r="Y21" s="15">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="D22" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22">
+        <v>204.9</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ref="F22:Y22" si="0">E22+E22*$E$23%</f>
+        <v>205.5147</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>206.1312441</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>206.74963783230001</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>207.36988674579692</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>207.9919964060343</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>208.61597239525241</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>209.24182031243816</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>209.86954577337548</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>210.49915441069561</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="0"/>
+        <v>211.13065187392769</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="0"/>
+        <v>211.76404382954948</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="0"/>
+        <v>212.39933596103813</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="0"/>
+        <v>213.03653396892125</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="0"/>
+        <v>213.67564357082802</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="0"/>
+        <v>214.3166705015405</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="0"/>
+        <v>214.95962051304511</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="0"/>
+        <v>215.60449937458424</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="0"/>
+        <v>216.25131287270798</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="0"/>
+        <v>216.9000668113261</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="0"/>
+        <v>217.55076701176009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="D23" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -748,241 +1269,244 @@
   </sheetPr>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="47.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="47.83203125" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="8">
+        <f>Data!B$14</f>
+        <v>5.3652130488393804E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8">
+        <f>Data!B$14</f>
+        <v>5.3652130488393804E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="8">
+        <f>Data!B$14</f>
+        <v>5.3652130488393804E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="8">
+        <f>Data!B$14</f>
+        <v>5.3652130488393804E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B10" s="8">
+        <f>Data!B$14</f>
+        <v>5.3652130488393804E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="8">
+        <f>Data!B$14</f>
+        <v>5.3652130488393804E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="8">
+        <f>Data!B$14</f>
+        <v>5.3652130488393804E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="8">
+        <f>Data!B$14</f>
+        <v>5.3652130488393804E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="8">
+        <f>Data!B$14</f>
+        <v>5.3652130488393804E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="8">
+        <f>Data!B$14</f>
+        <v>5.3652130488393804E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="8">
+        <f>Data!B$14</f>
+        <v>5.3652130488393804E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="8">
+        <f>Data!B$14</f>
+        <v>5.3652130488393804E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="8">
+        <f>Data!B$14</f>
+        <v>5.3652130488393804E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="8">
+        <f>Data!B$14</f>
+        <v>5.3652130488393804E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="8">
+        <f>Data!B$14</f>
+        <v>5.3652130488393804E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="8">
+        <f>Data!B$14</f>
+        <v>5.3652130488393804E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="8">
+        <f>Data!B$14</f>
+        <v>5.3652130488393804E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="8">
+        <f>Data!B$14</f>
+        <v>5.3652130488393804E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="11">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="11">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="10">
-        <f>Data!B$7</f>
-        <v>7.8688524590163927E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="10">
-        <f>Data!B$7</f>
-        <v>7.8688524590163927E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="10">
-        <f>Data!B$7</f>
-        <v>7.8688524590163927E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="10">
-        <f>Data!B$7</f>
-        <v>7.8688524590163927E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="10">
-        <f>Data!B$7</f>
-        <v>7.8688524590163927E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="10">
-        <f>Data!B$7</f>
-        <v>7.8688524590163927E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="10">
-        <f>Data!B$7</f>
-        <v>7.8688524590163927E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="10">
-        <f>Data!B$7</f>
-        <v>7.8688524590163927E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="10">
-        <f>Data!B$7</f>
-        <v>7.8688524590163927E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="10">
-        <f>Data!B$7</f>
-        <v>7.8688524590163927E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="10">
-        <f>Data!B$7</f>
-        <v>7.8688524590163927E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="10">
-        <f>Data!B$7</f>
-        <v>7.8688524590163927E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="10">
-        <f>Data!B$7</f>
-        <v>7.8688524590163927E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="10">
-        <f>Data!B$7</f>
-        <v>7.8688524590163927E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="10">
-        <f>Data!B$7</f>
-        <v>7.8688524590163927E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="10">
-        <f>Data!B$7</f>
-        <v>7.8688524590163927E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="10">
-        <f>Data!B$7</f>
-        <v>7.8688524590163927E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="10">
-        <f>Data!B$7</f>
-        <v>7.8688524590163927E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="11">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>